--- a/tietokanta/class_progression/class_progression_Wizard.xlsx
+++ b/tietokanta/class_progression/class_progression_Wizard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A1A9F2-F9A0-429A-ABA2-51A94E24EF16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747DDFCF-6300-4409-AFA2-DD830A83C920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Ancestry</t>
   </si>
   <si>
-    <t>Bloodline</t>
-  </si>
-  <si>
     <t>Proficiencies</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Initial Feat</t>
   </si>
   <si>
-    <t>Arcane Thesis</t>
-  </si>
-  <si>
     <t>Wizard Feat</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>Legendary Archwizard</t>
+  </si>
+  <si>
+    <t>Arcane Bond</t>
+  </si>
+  <si>
+    <t>Background</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,25 +460,25 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -486,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -511,10 +511,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -522,19 +522,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -542,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -553,16 +553,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -581,16 +581,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -612,19 +612,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -643,19 +643,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -674,19 +674,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,10 +694,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,16 +705,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,16 +733,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,13 +750,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tietokanta/class_progression/class_progression_Wizard.xlsx
+++ b/tietokanta/class_progression/class_progression_Wizard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747DDFCF-6300-4409-AFA2-DD830A83C920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE14FEF-47B8-4832-9D27-97D46CDA5DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Ancestry</t>
   </si>
@@ -124,16 +124,49 @@
   </si>
   <si>
     <t>Background</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Feature 2</t>
+  </si>
+  <si>
+    <t>Feature 1</t>
+  </si>
+  <si>
+    <t>Feature 3</t>
+  </si>
+  <si>
+    <t>Feature 4</t>
+  </si>
+  <si>
+    <t>Feature 5</t>
+  </si>
+  <si>
+    <t>Feature 6</t>
+  </si>
+  <si>
+    <t>Feature 7</t>
+  </si>
+  <si>
+    <t>Feature 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,313 +486,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>